--- a/natmiOut/OldD0/LR-pairs_lrc2p/Pros1-Axl.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Pros1-Axl.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.3693052586537</v>
+        <v>17.586354</v>
       </c>
       <c r="H2">
-        <v>10.3693052586537</v>
+        <v>52.759062</v>
       </c>
       <c r="I2">
-        <v>0.1411581186016755</v>
+        <v>0.2178245326054132</v>
       </c>
       <c r="J2">
-        <v>0.1411581186016755</v>
+        <v>0.2178245326054132</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.40118833281941</v>
+        <v>3.460132666666667</v>
       </c>
       <c r="N2">
-        <v>3.40118833281941</v>
+        <v>10.380398</v>
       </c>
       <c r="O2">
-        <v>0.01602392548678292</v>
+        <v>0.01616897968344663</v>
       </c>
       <c r="P2">
-        <v>0.01602392548678292</v>
+        <v>0.01616897968344663</v>
       </c>
       <c r="Q2">
-        <v>35.26796006517592</v>
+        <v>60.851117962964</v>
       </c>
       <c r="R2">
-        <v>35.26796006517592</v>
+        <v>547.660061666676</v>
       </c>
       <c r="S2">
-        <v>0.002261907174327716</v>
+        <v>0.003522000442253184</v>
       </c>
       <c r="T2">
-        <v>0.002261907174327716</v>
+        <v>0.003522000442253185</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.3693052586537</v>
+        <v>17.586354</v>
       </c>
       <c r="H3">
-        <v>10.3693052586537</v>
+        <v>52.759062</v>
       </c>
       <c r="I3">
-        <v>0.1411581186016755</v>
+        <v>0.2178245326054132</v>
       </c>
       <c r="J3">
-        <v>0.1411581186016755</v>
+        <v>0.2178245326054132</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>181.853066575229</v>
+        <v>183.09167</v>
       </c>
       <c r="N3">
-        <v>181.853066575229</v>
+        <v>549.27501</v>
       </c>
       <c r="O3">
-        <v>0.8567593744298447</v>
+        <v>0.8555757185143522</v>
       </c>
       <c r="P3">
-        <v>0.8567593744298447</v>
+        <v>0.8555757185143523</v>
       </c>
       <c r="Q3">
-        <v>1885.689959540824</v>
+        <v>3219.91492307118</v>
       </c>
       <c r="R3">
-        <v>1885.689959540824</v>
+        <v>28979.23430764062</v>
       </c>
       <c r="S3">
-        <v>0.1209385413888654</v>
+        <v>0.1863653809939293</v>
       </c>
       <c r="T3">
-        <v>0.1209385413888654</v>
+        <v>0.1863653809939294</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.3693052586537</v>
+        <v>17.586354</v>
       </c>
       <c r="H4">
-        <v>10.3693052586537</v>
+        <v>52.759062</v>
       </c>
       <c r="I4">
-        <v>0.1411581186016755</v>
+        <v>0.2178245326054132</v>
       </c>
       <c r="J4">
-        <v>0.1411581186016755</v>
+        <v>0.2178245326054132</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.0026190785927</v>
+        <v>27.44640466666667</v>
       </c>
       <c r="N4">
-        <v>27.0026190785927</v>
+        <v>82.339214</v>
       </c>
       <c r="O4">
-        <v>0.1272167000833725</v>
+        <v>0.1282553018022011</v>
       </c>
       <c r="P4">
-        <v>0.1272167000833725</v>
+        <v>0.1282553018022011</v>
       </c>
       <c r="Q4">
-        <v>279.998400009074</v>
+        <v>482.682188495252</v>
       </c>
       <c r="R4">
-        <v>279.998400009074</v>
+        <v>4344.139696457268</v>
       </c>
       <c r="S4">
-        <v>0.01795767003848248</v>
+        <v>0.02793715116923065</v>
       </c>
       <c r="T4">
-        <v>0.01795767003848248</v>
+        <v>0.02793715116923067</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>52.2285582503265</v>
+        <v>52.27042766666667</v>
       </c>
       <c r="H5">
-        <v>52.2285582503265</v>
+        <v>156.811283</v>
       </c>
       <c r="I5">
-        <v>0.7109912222654843</v>
+        <v>0.6474213742983183</v>
       </c>
       <c r="J5">
-        <v>0.7109912222654843</v>
+        <v>0.6474213742983183</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.40118833281941</v>
+        <v>3.460132666666667</v>
       </c>
       <c r="N5">
-        <v>3.40118833281941</v>
+        <v>10.380398</v>
       </c>
       <c r="O5">
-        <v>0.01602392548678292</v>
+        <v>0.01616897968344663</v>
       </c>
       <c r="P5">
-        <v>0.01602392548678292</v>
+        <v>0.01616897968344663</v>
       </c>
       <c r="Q5">
-        <v>177.6391629609894</v>
+        <v>180.8626142700705</v>
       </c>
       <c r="R5">
-        <v>177.6391629609894</v>
+        <v>1627.763528430634</v>
       </c>
       <c r="S5">
-        <v>0.01139287036733884</v>
+        <v>0.0104681430476586</v>
       </c>
       <c r="T5">
-        <v>0.01139287036733884</v>
+        <v>0.01046814304765861</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>52.2285582503265</v>
+        <v>52.27042766666667</v>
       </c>
       <c r="H6">
-        <v>52.2285582503265</v>
+        <v>156.811283</v>
       </c>
       <c r="I6">
-        <v>0.7109912222654843</v>
+        <v>0.6474213742983183</v>
       </c>
       <c r="J6">
-        <v>0.7109912222654843</v>
+        <v>0.6474213742983183</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>181.853066575229</v>
+        <v>183.09167</v>
       </c>
       <c r="N6">
-        <v>181.853066575229</v>
+        <v>549.27501</v>
       </c>
       <c r="O6">
-        <v>0.8567593744298447</v>
+        <v>0.8555757185143522</v>
       </c>
       <c r="P6">
-        <v>0.8567593744298447</v>
+        <v>0.8555757185143523</v>
       </c>
       <c r="Q6">
-        <v>9497.923480624851</v>
+        <v>9570.279893104203</v>
       </c>
       <c r="R6">
-        <v>9497.923480624851</v>
+        <v>86132.51903793782</v>
       </c>
       <c r="S6">
-        <v>0.609148394813287</v>
+        <v>0.553918007496833</v>
       </c>
       <c r="T6">
-        <v>0.609148394813287</v>
+        <v>0.5539180074968331</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>52.2285582503265</v>
+        <v>52.27042766666667</v>
       </c>
       <c r="H7">
-        <v>52.2285582503265</v>
+        <v>156.811283</v>
       </c>
       <c r="I7">
-        <v>0.7109912222654843</v>
+        <v>0.6474213742983183</v>
       </c>
       <c r="J7">
-        <v>0.7109912222654843</v>
+        <v>0.6474213742983183</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.0026190785927</v>
+        <v>27.44640466666667</v>
       </c>
       <c r="N7">
-        <v>27.0026190785927</v>
+        <v>82.339214</v>
       </c>
       <c r="O7">
-        <v>0.1272167000833725</v>
+        <v>0.1282553018022011</v>
       </c>
       <c r="P7">
-        <v>0.1272167000833725</v>
+        <v>0.1282553018022011</v>
       </c>
       <c r="Q7">
-        <v>1410.307863457657</v>
+        <v>1434.635309839063</v>
       </c>
       <c r="R7">
-        <v>1410.307863457657</v>
+        <v>12911.71778855156</v>
       </c>
       <c r="S7">
-        <v>0.09044995708485852</v>
+        <v>0.08303522375382659</v>
       </c>
       <c r="T7">
-        <v>0.09044995708485852</v>
+        <v>0.0830352237538266</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.8609312197462</v>
+        <v>10.87955133333333</v>
       </c>
       <c r="H8">
-        <v>10.8609312197462</v>
+        <v>32.638654</v>
       </c>
       <c r="I8">
-        <v>0.1478506591328401</v>
+        <v>0.1347540930962685</v>
       </c>
       <c r="J8">
-        <v>0.1478506591328401</v>
+        <v>0.1347540930962685</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.40118833281941</v>
+        <v>3.460132666666667</v>
       </c>
       <c r="N8">
-        <v>3.40118833281941</v>
+        <v>10.380398</v>
       </c>
       <c r="O8">
-        <v>0.01602392548678292</v>
+        <v>0.01616897968344663</v>
       </c>
       <c r="P8">
-        <v>0.01602392548678292</v>
+        <v>0.01616897968344663</v>
       </c>
       <c r="Q8">
-        <v>36.94007254815487</v>
+        <v>37.64469096714355</v>
       </c>
       <c r="R8">
-        <v>36.94007254815487</v>
+        <v>338.802218704292</v>
       </c>
       <c r="S8">
-        <v>0.002369147945116371</v>
+        <v>0.00217883619353484</v>
       </c>
       <c r="T8">
-        <v>0.002369147945116371</v>
+        <v>0.002178836193534841</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.8609312197462</v>
+        <v>10.87955133333333</v>
       </c>
       <c r="H9">
-        <v>10.8609312197462</v>
+        <v>32.638654</v>
       </c>
       <c r="I9">
-        <v>0.1478506591328401</v>
+        <v>0.1347540930962685</v>
       </c>
       <c r="J9">
-        <v>0.1478506591328401</v>
+        <v>0.1347540930962685</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>181.853066575229</v>
+        <v>183.09167</v>
       </c>
       <c r="N9">
-        <v>181.853066575229</v>
+        <v>549.27501</v>
       </c>
       <c r="O9">
-        <v>0.8567593744298447</v>
+        <v>0.8555757185143522</v>
       </c>
       <c r="P9">
-        <v>0.8567593744298447</v>
+        <v>0.8555757185143523</v>
       </c>
       <c r="Q9">
-        <v>1975.093648173489</v>
+        <v>1991.955222470727</v>
       </c>
       <c r="R9">
-        <v>1975.093648173489</v>
+        <v>17927.59700223654</v>
       </c>
       <c r="S9">
-        <v>0.1266724382276923</v>
+        <v>0.1152923300235898</v>
       </c>
       <c r="T9">
-        <v>0.1266724382276923</v>
+        <v>0.1152923300235898</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.8609312197462</v>
+        <v>10.87955133333333</v>
       </c>
       <c r="H10">
-        <v>10.8609312197462</v>
+        <v>32.638654</v>
       </c>
       <c r="I10">
-        <v>0.1478506591328401</v>
+        <v>0.1347540930962685</v>
       </c>
       <c r="J10">
-        <v>0.1478506591328401</v>
+        <v>0.1347540930962685</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.0026190785927</v>
+        <v>27.44640466666667</v>
       </c>
       <c r="N10">
-        <v>27.0026190785927</v>
+        <v>82.339214</v>
       </c>
       <c r="O10">
-        <v>0.1272167000833725</v>
+        <v>0.1282553018022011</v>
       </c>
       <c r="P10">
-        <v>0.1272167000833725</v>
+        <v>0.1282553018022011</v>
       </c>
       <c r="Q10">
-        <v>293.2735885656019</v>
+        <v>298.6045684864396</v>
       </c>
       <c r="R10">
-        <v>293.2735885656019</v>
+        <v>2687.441116377956</v>
       </c>
       <c r="S10">
-        <v>0.01880907296003146</v>
+        <v>0.01728292687914381</v>
       </c>
       <c r="T10">
-        <v>0.01880907296003146</v>
+        <v>0.01728292687914382</v>
       </c>
     </row>
   </sheetData>
